--- a/medicine_inventory.xlsx
+++ b/medicine_inventory.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -45,7 +45,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -424,19 +425,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="19.83203125" customWidth="1" min="2" max="2"/>
-    <col width="32" customWidth="1" min="3" max="3"/>
-    <col width="42.5" customWidth="1" min="4" max="4"/>
-    <col width="28" customWidth="1" min="5" max="5"/>
-    <col width="30.6640625" customWidth="1" min="6" max="6"/>
+    <col width="50.6640625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="32" customWidth="1" style="1" min="3" max="3"/>
+    <col width="42.5" customWidth="1" style="1" min="4" max="4"/>
+    <col width="28" customWidth="1" style="1" min="5" max="5"/>
+    <col width="30.6640625" customWidth="1" style="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,7 +487,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -565,6 +566,6126 @@
       </c>
       <c r="F5" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>104</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Demazin Allergy + Hayfever Relief Non-Drowsy 80 Tablets</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Demazin</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>105</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ALLOPURINOL SZ TAB 300MG 60</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ALLOPURINOL</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>106</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AMLODIPINE SZ TAB 5MG 30</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AMLODIPINE</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>107</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AROPAX 20MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>AROPAX</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>108</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATENOLOL SZ TAB 50MG 30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ATENOLOL</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>109</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATORVASTATIN SANDOZ 10MG TABLETS 30</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ATORVASTATIN</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>110</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ATORVASTATIN SANDOZ 20MG TABLETS 30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ATORVASTATIN</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATORVASTATIN SANDOZ 40MG TABLETS 30</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ATORVASTATIN</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ATORVASTATIN SANDOZ 80MG TABLETS 30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ATORVASTATIN</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>113</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AVAPRO HCT 300/12.5MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>AVAPRO</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>114</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CANDESARTAN TAB 16MG 30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CANDESARTAN</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>115</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CELEBREX CAP 200MG 30</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CELEBREX</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>116</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CEFALEXIN SZ 500MG CAP 20</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CEFALEXIN</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>117</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CIALIS 20MG TAB 4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CIALIS</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>118</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CIALIS 20MG TAB 8</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CIALIS</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>100</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>76.98999999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>119</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CIRCADIN 2mg Tablets 60</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CIRCADIN</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>120</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CITALOPRAM SZ TAB 20MG 28</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CITALOPRAM</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>121</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AMITRIPTYLINE 50MG 50 BLISTER PACK</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AMITRIPTYLINE</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>100</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>122</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AMIODARONE SANDOZ 200MG BLISTER 30 TAB</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>AMIODARONE</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>100</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>123</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AMLODIPINE SZ 5MG TABS 30</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AMLODIPINE</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>100</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>124</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AMLODIPINE SZ 10MG TABS 30</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>AMLODIPINE</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>125</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AMOXIL CAP 250MG 20</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AMOXIL</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>126</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AMOXIL CAP 500MG 20</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>AMOXIL</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>100</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>127</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AMOXIL PAED DROP 100MG/ML 20ML</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>AMOXIL</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>100</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>128</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AMOXIL SYRUP 125MG/5 100ML S/F</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>AMOXIL</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>129</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AMOXIL SYRUP 250MG/5 100ML S/F</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AMOXIL</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>130</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AMOXYCILLIN SZ CAP 500MG 20</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AMOXYCILLIN</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>131</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AMOXYCILLIN SZ SYR 250MG/5ML 100ML</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AMOXYCILLIN</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>132</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AMOXYCILLIN SNDZ TAB 1000MG 14</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AMOXYCILLIN</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>100</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>133</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ANAFRANIL TAB 25MG 50</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ANAFRANIL</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>100</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>134</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BETAHISTINE SZ 16MG TAB 25</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BETAHISTINE</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>135</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BETALOC TAB 50MG 100</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BETALOC</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>100</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>136</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BETALOC TAB 100MG 60</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BETALOC</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>100</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>137</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BETMIGA 25MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BETMIGA</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>100</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>64.98999999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>138</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>BETMIGA 50MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BETMIGA</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>100</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>64.98999999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>139</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BETNOVATE 1/2 CREAM 15G</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BETNOVATE</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>100</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>140</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BETNOVATE 1/5 CREAM 100GX2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BETNOVATE</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>141</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BEXSERO SYRINGE PRE-FILLED</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BEXSERO</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>100</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>109.99</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>142</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BIAXSIG TAB 150MG 10</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BIAXSIG</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>100</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>143</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BIAXSIG TAB 300MG 5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BIAXSIG</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>100</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>144</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BIMATOPROST SANDOZ 300 MCG/ML EYE DROPS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BIMATOPROST</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>100</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>145</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>BOOSTRIX VAC ADULT PFS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>BOOSTRIX</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>100</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>146</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BOOSTRIX IPV PF SYRINGE+1 1X1D</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BOOSTRIX</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>100</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>65.98999999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>147</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BRINTELLIX VRTXTNE 5MG 28 TAB</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BRINTELLIX</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>100</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>148</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BRINTELLIX VRTXTNE 10MG 28 TAB</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BRINTELLIX</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>100</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>149</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CILICAINE V SUSP 150MG/5ML 100MLX2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CILICAINE</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>100</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>150</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CILICAINE VK CAP 250MG 50</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CILICAINE</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>100</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>151</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CILICAINE VK CAP 500MG 50</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CILICAINE</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>100</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>152</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CIPRAMIL TAB 20MG 28</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CIPRAMIL</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>100</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>153</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CIPROXIN HC EAR DROPS 10ML</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CIPROXIN</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>100</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>41.99</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>154</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CIRCADIN 2mg TABLETS 60</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CIRCADIN</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>100</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>155</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CITALOPRAM SZ 20MG TAB 28</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CITALOPRAM</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>100</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>156</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CITALOPRAM SZ 40MG TAB 28</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CITALOPRAM</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>100</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>157</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CLARITHROMYCIN SZ 250MG TAB 14</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CLARITHROMYCIN</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>100</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>158</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CLIMARA 50mcg PATCH 4</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CLIMARA</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>100</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>159</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CLINDAMYCIN LU 150MG 24 CAP BLISTER PACK</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CLINDAMYCIN</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>100</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>160</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CLINDATECH 50ML</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CLINDATECH</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>100</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>161</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CLINDATECH 100ML</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CLINDATECH</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>100</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>162</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CLOPIDOGREL SZ 75MG TAB 28</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CLOPIDOGREL</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>100</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>163</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>COLESE TAB 135MG 30</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>COLESE</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>100</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>164</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DIPROSONE OINT 0.05% 50G</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DIPROSONE</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>100</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>165</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DIPROSONE OV OINT 0.05% 30G</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DIPROSONE</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>100</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>55.99</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>166</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DIPROSONE SCALP LOTN .05% 30ML</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DIPROSONE</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>100</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>167</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DISTAPH TAB 500MG 24</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DISTAPH</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>100</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>168</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DITROPAN TAB 5MG 100</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DITROPAN</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>100</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>169</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DOLAPRIL 0.5MG CAP 28</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DOLAPRIL</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>100</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>170</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DOLAPRIL 1MG CAP 28</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DOLAPRIL</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>100</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>171</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DOLAPRIL 2MG CAP 28</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DOLAPRIL</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>100</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>172</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DOLAPRIL 4MG CAP 28</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DOLAPRIL</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>100</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>173</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DOXYCYCLINE CAP 50MG 25 MAYNE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DOXYCYCLINE</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>100</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>174</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DOTHEP CAP 25MG 50</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DOTHEP</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>100</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>175</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DOTHEP TAB 75MG 30</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DOTHEP</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>100</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>176</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DOXYCYCLINE CAP 100MG 7 MAYNE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DOXYCYCLINE</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>100</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>177</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DOXYCYCLINE CAP 100MG 14 MAYNE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DOXYCYCLINE</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>100</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>178</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ENDEP TAB 50MG 50</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ENDEP</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>100</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>179</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ENGERIX B VAC ADULT PRE-FILLED 1ML</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ENGERIX</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>100</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>180</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>EPIDUO GEL 30g PUMP</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>EPIDUO</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>100</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>27.69</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>181</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>EPILIM TAB ENT/COAT 200MG 100X2</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>EPILIM</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>100</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>182</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>EPILIM TAB ENT/COAT 500MG 100X2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>EPILIM</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>100</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>183</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ERYC CAP 250MG 25</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ERYC</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>100</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>184</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ESOPREZE 20MG TABLETS BLISTER PACK</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ESOPREZE</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>100</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>185</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ESOPREZE 40MG TABLETS BLISTER PACK</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ESOPREZE</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>100</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>186</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ESCITALOPRAM SZ 10MG TAB 28</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ESCITALOPRAM</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>100</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>187</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ESCITALOPRAM SZ 20MG TAB 28</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ESCITALOPRAM</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>100</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>188</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ESTALIS CONT 50/140 8X1 PATCH</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ESTALIS</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>100</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>189</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ESTALIS CONT 50/250 8X1 PATCH</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ESTALIS</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>100</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>190</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ESTALIS SEQUI 50/140 8X1 PATCH</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ESTALIS</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>100</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>191</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ESTELLE 35 ED TAB 1X28 BLIST</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ESTELLE</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>100</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>192</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ESTELLE 35 ED TAB 3X28 BLIST</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ESTELLE</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>100</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>193</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ESTRADERM PATCHES 25 PKT8</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ESTRADERM</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>100</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>194</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ESTRADOT TT50 PATCH PKT 8</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ESTRADOT</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>100</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>195</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>EUTROXSIG 50MCG (5X40)200 TAB</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>EUTROXSIG</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>100</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>196</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>EUTROXSIG 75MCG (5X40)200 TAB</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>EUTROXSIG</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>100</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>197</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>GENRX CLOMIPRAMINE TAB 25MG 50</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>GENRX</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>100</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>198</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>GARDASIL 9 x 1 PREFILLED SYRINGE</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>GARDASIL</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>100</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>182.99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>199</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>GLUCOVANCE 500/2.5MG TAB 90</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>GLUCOVANCE</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>200</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>GLUCOVANCE 500/5MG TAB 90</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>GLUCOVANCE</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>100</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>201</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>GLIMEPIRIDE SZ 1MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>GLIMEPIRIDE</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>100</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>202</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>GLIMEPIRIDE SZ 2MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>GLIMEPIRIDE</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>100</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>203</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>GLIMEPIRIDE SZ 3MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>GLIMEPIRIDE</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>100</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>204</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>GLIMEPIRIDE SZ 4MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>GLIMEPIRIDE</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>100</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>205</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>GOPTEN CAP 0.5MG 28</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>GOPTEN</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>100</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>206</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>GOPTEN CAP 1.0MG 28</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>GOPTEN</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>100</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>207</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>GOPTEN CAP 2.0MG 28</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>GOPTEN</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>100</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>208</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>GOPTEN CAP 4.0MG X 28</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>GOPTEN</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>100</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>209</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>HAVRIX JNR SYR 720EU 0.5ML P/F</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>HAVRIX</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>100</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>38.99</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>210</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>HAVRIX SYRINGE 1440EU P/F</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>HAVRIX</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>100</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>211</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>HYDOPA TAB 250MG 100</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>HYDOPA</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>100</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>212</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>HYDRENE TAB 25/50MG 100</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>HYDRENE</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>100</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>213</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>HYDRO-B12 AMPOULE 1MG/1ML 3</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>HYDRO-B12</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>100</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>214</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>HYGROTON TAB 25MG 50X2</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>HYGROTON</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>100</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>215</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>IBUPROFEN &amp; CODEINE 200/12.8mg 30 TABLETS SZ</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>IBUPROFEN</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>100</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>216</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>IDAPREX 2 2MG 30 TABLETS BLISTER</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>IDAPREX</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>100</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>217</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>IDAPREX 4 4MG 30 TABLETS BLISTER</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>IDAPREX</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>100</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>218</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>IDAPREX 8 8MG 30 TABLETS BLISTER</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>IDAPREX</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>100</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>219</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>IDAPREX COMBI 4/1.25 TABLETS 30 BLISTER</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>IDAPREX</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>100</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>220</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>IMDUR TAB SR 60MG 30</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>IMDUR</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>100</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>221</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>IMDUR TAB SR 120MG 30</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>IMDUR</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>100</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>222</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>IMIGRAN NASAL SPRY 20MG 2 DOSE</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>IMIGRAN</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>100</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>223</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MINIPRESS TAB 2MG 100</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>MINIPRESS</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>100</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>224</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>MINIPRESS TAB 5MG 100</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>MINIPRESS</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>100</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>225</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>MINOMYCIN TAB 50MG 60</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>MINOMYCIN</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>100</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>226</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>MIRTAZAPINE SZ TAB 30MG 30</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>MIRTAZAPINE</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>100</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>227</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>MIRTAZAPINE SZ TAB 45MG 30</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>MIRTAZAPINE</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>100</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>228</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>MIRTAZAPINE SZ ODT 15MG 30</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>MIRTAZAPINE</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>100</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>229</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>MIRTAZAPINE SZ ODT 30MG 30</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>MIRTAZAPINE</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>100</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>230</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>MOBIC CAP 7.5MG 30</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>MOBIC</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>100</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>231</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>MOBIC CAP 15MG 30</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>MOBIC</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>100</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>232</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>MOBIC TAB 7.5MG 30</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>MOBIC</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>100</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>233</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>MOBIC TAB 15.0MG 30</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>MOBIC</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>100</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>234</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>MOCLOBEMIDE SZ 150MG TAB 60</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>MOCLOBEMIDE</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>100</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>235</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>MOCLOBEMIDE SZ 300MG TAB 60</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>MOCLOBEMIDE</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>100</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>236</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>MODAFINIL SZ 100MG TAB 60 BP</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>MODAFINIL</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>100</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>237</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>NORIMIN TAB 28 X4</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>NORIMIN</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>100</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>238</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>NORIMIN 1 TAB 28 X4</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>NORIMIN</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>100</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>239</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>NORINYL 1 TAB 28 X4</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>NORINYL</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>100</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>240</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>NORLEVO-1 TAB 1</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>NORLEVO-1</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>100</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>241</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>NORMISON TAB 10MG 25</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>NORMISON</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>100</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>242</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>NORVASC TAB 5MG 30</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>NORVASC</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>100</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>243</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>NORVASC TAB 10MG 30</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>NORVASC</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>100</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>244</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>NOVASONE LOTN 30ML</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>NOVASONE</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>100</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>245</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>PANAFCORTELONE TAB 25MG 30</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PANAFCORTELONE</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>100</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>246</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>PANTOPRAZOLE SZ 20MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PANTOPRAZOLE</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>100</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>247</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>PANTOPRAZOLE SZ 40MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>PANTOPRAZOLE</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>100</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>248</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>PARIET TAB 10MG 28</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>PARIET</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>100</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>249</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>PARIET TAB 20MG 30</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>PARIET</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>100</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>250</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>PAROXETINE SZ 20MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>PAROXETINE</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>100</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>251</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>PATANOL EYE DROPS 0.1%</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>PATANOL</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>100</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>41.99</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>252</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>PAXAM TAB 0.5MG 100</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>PAXAM</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>100</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>253</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>PAXAM TAB 0.5MG 100X2</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>PAXAM</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>100</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>254</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>PAXAM TAB 2.0MG 100</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>PAXAM</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>100</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>255</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>PAXAM TAB 2.0MG 100X2</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>PAXAM</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>100</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>256</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>PHARMACOR METFORMIN XR 1000MG 60 TAB</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>PHARMACOR</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>100</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>257</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>PHARMACOR METFORMIN XR 500MG 60 TAB</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>PHARMACOR</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>100</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>258</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>PHYSIOTENS TAB 200MCG 30</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>PHYSIOTENS</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>100</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>259</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>PHYSIOTENS TAB 400MCG 30</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>PHYSIOTENS</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>100</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>260</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>PLAQUENIL TAB 200MG 100</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>PLAQUENIL</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>100</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>261</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>PLAVIX TAB 75MG 28</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>PLAVIX</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>100</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>262</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>RELPAX TAB 80MG 4</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>RELPAX</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>100</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>263</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>RENITEC TAB 10MG 30</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>RENITEC</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>100</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>264</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>RENITEC TAB 20MG 30</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>RENITEC</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>100</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>265</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>RENITEC PLUS TAB 20MG 30</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>RENITEC</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>100</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>266</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>RETRIEVE CREAM 50G</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>RETRIEVE</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>100</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>64.98999999999999</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>267</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>RISEDRONATE SANDOZ 35MG TABLETS 4 BLISTER</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>RISEDRONATE</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>100</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>268</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ROACCUTANE CAP 20MG 60</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>ROACCUTANE</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>100</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>269</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ROSUVASTATIN SANDOZ 5MG FCT 30 BLISTER</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>ROSUVASTATIN</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>100</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>270</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ROSUVASTATIN SANDOZ 10MG FCT 30 BLISTER</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>ROSUVASTATIN</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>100</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>271</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ROSUVASTATIN SANDOZ 20MG FCT 30 BLISTER</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>ROSUVASTATIN</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>100</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>272</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ROSUVASTATIN SANDOZ 40MG FCT 30 BLISTER</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>ROSUVASTATIN</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>100</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>273</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ROZEX CREAM 30GM</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>ROZEX</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>100</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>48.99</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>274</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ROZEX GEL 50GM</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>ROZEX</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>100</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>275</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ROXITHROMYCIN SZ 150MG TAB 10</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>ROXITHROMYCIN</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>100</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>276</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ROXITHROMYCIN SZ 300MG TAB 10</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>ROXITHROMYCIN</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>100</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>277</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>RULIDE TAB 150MG 10</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>RULIDE</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>100</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>278</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>RULIDE TAB 300MG 5</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>RULIDE</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>100</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>279</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>RULIDE D TAB 50MG 10</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>RULIDE</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>100</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>280</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>SIGMACORT CREAM 1% 50G</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>SIGMACORT</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>90</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>281</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>SIGMACORT OINT 1% 50G</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>SIGMACORT</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>100</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>282</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>SILDENAFIL SZ 25MG 4 TABS</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>SILDENAFIL</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>100</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>283</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>SILDENAFIL SZ 50MG 4 TABS</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>SILDENAFIL</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>100</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>284</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>SILDENAFIL SZ 100MG 4 TABS</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>SILDENAFIL</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>100</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>285</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>SILDENAFIL SZ 100MG 12 TABS</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>SILDENAFIL</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>100</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>286</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>SIMVASTATIN SZ 5MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>SIMVASTATIN</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>100</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>287</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>SIMVASTATIN SZ 10MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>SIMVASTATIN</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>100</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>288</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>SIMVASTATIN SZ 20MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>SIMVASTATIN</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>100</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>289</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>SIMVASTATIN SZ 40MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>SIMVASTATIN</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>100</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>290</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>SIMVASTATIN SZ 80MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>SIMVASTATIN</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>100</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>291</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>SINEQUAN CAP 25MG 50</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>SINEQUAN</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>100</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>292</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>SINGULAIR TAB 10MG 28</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>SINGULAIR</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>100</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>293</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>SODIUM VALPROATE SZ 200MG TAB 100X2</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>SODIUM</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>100</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>294</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>SODIUM VALPROATE SZ 500MG TAB 100X2</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>SODIUM</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>100</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>295</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>SOFRADEX EAR DROPS 0.5% 8ML</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>SOFRADEX</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>100</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>296</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>SOFRAMYCIN EYE/EAR DROPS 8ML</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>SOFRAMYCIN</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>100</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>297</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>SOLARAZE 3% GEL 25GM</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>SOLARAZE</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>100</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>298</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>SOLONE TAB 5MG 60</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>SOLONE</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>100</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>299</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>SOLONE TAB 25MG 30</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>SOLONE</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>100</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>300</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>SOMAC TAB 20MG 30</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>SOMAC</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>100</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>301</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>SOMAC TAB 40MG 30</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>SOMAC</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>100</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>302</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>SOTACOR TAB 80MG 60</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>SOTACOR</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>100</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>303</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>SOTALOL SZ 80MG TAB 60</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>SOTALOL</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>100</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>304</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>TRAMADOL SZ SR 200MG TAB 20</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>TRAMADOL</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>100</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>305</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>TRIASYN 2.5MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>TRIASYN</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>100</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>306</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>TRIASYN 5MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>TRIASYN</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>100</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>307</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>TRICORTONE CREAM 100GX2</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>TRICORTONE</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>100</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>308</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>TRICORTONE OINT 100GX2</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>TRICORTONE</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>100</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>309</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>TRIFEME 28X4</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>TRIFEME</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>100</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>310</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>TRIPRIM TAB 300MG 7</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>TRIPRIM</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>100</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>311</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>TRISEQUENS TAB 28</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>TRISEQUENS</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>100</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>41.99</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>312</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>TRITACE TAB 1.25MG 30</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>TRITACE</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>100</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>313</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>TRITACE TAB 2.50MG 30</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>TRITACE</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>100</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>314</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>TRITACE TAB 5.00MG 30</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>TRITACE</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>100</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>315</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>TRITACE TAB 10MG 30</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>TRITACE</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>100</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>316</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ZESTRIL TAB 10MG 30</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>ZESTRIL</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>100</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>317</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ZESTRIL TAB 20MG 30</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>ZESTRIL</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>100</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>318</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ZIRCOL 10MG 28 TABLETS BLISTER PACK</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>ZIRCOL</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>100</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>319</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ZIRCOL 20MG 28 TABLETS BLISTER PACK</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>ZIRCOL</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>100</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>320</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ZITHROMAX TAB 500MG 2</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>ZITHROMAX</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>100</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>321</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>ZITHROMAX TAB 500MG 3</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ZITHROMAX</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>100</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>322</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>ZOCOR TAB 20MG 30</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>ZOCOR</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>100</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>323</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ZOCOR TAB 40MG 30</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>ZOCOR</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>100</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>324</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>ZOELY TAB 28</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>ZOELY</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>100</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>325</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ZOELY TAB 28X3</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>ZOELY</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>100</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>87.98999999999999</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>326</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ZOLOFT TAB 50MG 30</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>ZOLOFT</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>100</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>327</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>DIABEX XR 500MG TAB 120</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>DIABEX</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>100</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>328</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>DULOXETINE SZ 60MG CAPSULES 28</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>DULOXETINE</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>100</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>329</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>EFEXOR XR 150MG CAPS 28 BLISTER</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>EFEXOR</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>100</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>330</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ESCITALOPRAM SZ 20MG TAB 28</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>ESCITALOPRAM</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>100</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>331</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ESOPREZE 20MG TABLETS BLISTER PACK</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>ESOPREZE</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>100</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>332</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ESTELLE 35 ED 3 X 28</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>ESTELLE</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>100</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>333</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>EVELYN 150/30 ED TABS 4X28 BP</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>EVELYN</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>100</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>334</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>FLUOXETINE CAP 20MG 28</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>FLUOXETINE</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>100</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>335</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>IDAPREX TAB 4MG 30</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>IDAPREX</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>100</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>336</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>IDAPREX 4MG/1.25MG 30</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>IDAPREX</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>100</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>337</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>KARVEA TAB 300MG 30</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>KARVEA</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>100</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>338</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>LEVLEN ED 4X28</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>LEVLEN</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>100</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>339</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>LYRICA 75MG 56 CAPS</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>LYRICA</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>100</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>340</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>METERMINE 30mg CAP 30</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>METERMINE</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>100</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>89.98999999999999</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>341</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>METEX XR 500MG 120</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>METEX</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>100</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>342</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>METFORMIN SZ 500mg TAB 100</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>METFORMIN</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>100</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>343</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>PAROXTINE SZ TAB 20MG 30</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>PAROXTINE</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>100</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0</v>
+      </c>
+      <c r="F245" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>344</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>PRISTIQ 50MG 28 TABS</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>PRISTIQ</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>100</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>345</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>RAMIPRIL SZ 5MG TAB 30 BLISTER</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>RAMIPRIL</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>100</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>346</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>ROSUVASTATIN SZ 10MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>ROSUVASTATIN</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>100</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>347</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>ROSUVASTATIN SZ 20MG TAB 30</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>ROSUVASTATIN</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>100</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>348</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>SERTRALINE SZ TAB 100MG 30</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>SERTRALINE</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>100</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>349</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>SILDENAFIL SZ 100MG 12 TABS</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>SILDENAFIL</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>100</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>350</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>SIMVASTATIN SZ 40MG 30 TABLETS</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>SIMVASTATIN</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>100</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>351</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>SOMAC TAB 40MG 30</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>SOMAC</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>100</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>352</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>TADALAFIL SDZ 20MG 8 TABLETS</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>TADALAFIL</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>100</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>353</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>TEMAZEPAM TAB 10MG 25</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>TEMAZEPAM</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>100</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>354</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>VENTOLIN CFC FREE METERED DOSE INHALER 200D</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>VENTOLIN</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>100</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>355</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>VIAGRA TABLETS 100MG 12</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>VIAGRA</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>100</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>356</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>YASMIN TAB 3X28</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>100</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+      <c r="F258" t="n">
+        <v>79.98999999999999</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>357</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>ZEMPREON INHALER WITH DOSE COUNTER 200D</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>ZEMPREON</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>100</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>358</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>ZOLPIDEM 10MG 14 Blister</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>ZOLPIDEM</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>100</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>8.99</v>
       </c>
     </row>
   </sheetData>
